--- a/output/MHR/Report_MHR_2025-05-29.xlsx
+++ b/output/MHR/Report_MHR_2025-05-29.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="106">
   <si>
     <t>კომპანია</t>
   </si>
@@ -65,6 +65,9 @@
     <t>თანხა</t>
   </si>
   <si>
+    <t>ანგარიშის ნომერი</t>
+  </si>
+  <si>
     <t>კატეგორია</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
     <t>ტერმინალებში მიღებული თიბისი ბანკის გადახდების სატრანზიტო (პროვაიდერი) (2) TBCBGE22 GE69TB0000000251140006</t>
   </si>
   <si>
+    <t>GE28TB7148336020100003</t>
+  </si>
+  <si>
     <t>157.16</t>
   </si>
   <si>
@@ -299,6 +305,12 @@
     <t>პროცენტის დაფარვა;შპს მასტერ ჰოუმ რითეილ;6901483-13937060</t>
   </si>
   <si>
+    <t>სავალუტო სხვაობა - GE02TB7148336120100002</t>
+  </si>
+  <si>
+    <t>კურსთაშორისი სხვაობა</t>
+  </si>
+  <si>
     <t>შპს მასტერ ჰოუმ რითეილ  GE28TB7148336020100003</t>
   </si>
   <si>
@@ -312,9 +324,6 @@
   </si>
   <si>
     <t>1454636826</t>
-  </si>
-  <si>
-    <t>GE28TB7148336020100003</t>
   </si>
   <si>
     <t>GE74TB0000240205100212</t>
@@ -353,12 +362,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -388,12 +403,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,6 +827,9 @@
       </c>
       <c r="AM1" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -820,858 +839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:39">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:39">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2">
-        <v>337.78</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3">
-        <v>21.79</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4">
-        <v>681.1</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6">
-        <v>34.86</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7">
-        <v>113.91</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8">
-        <v>7780</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9">
-        <v>1553</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:39">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2">
-        <v>106.69</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45806</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O3">
-        <v>308.22</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1796,76 +964,211 @@
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>101</v>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AN9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>45806</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2">
         <v>337.78</v>
       </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="P2" t="s">
         <v>57</v>
       </c>
+      <c r="Z2" t="s">
+        <v>58</v>
+      </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
       </c>
       <c r="AI2" t="s">
         <v>87</v>
       </c>
-      <c r="AN2" t="s">
-        <v>102</v>
+      <c r="AJ2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>45806</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3">
         <v>21.79</v>
       </c>
-      <c r="Y3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="P3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
         <v>58</v>
       </c>
       <c r="AB3" t="s">
@@ -1875,260 +1178,260 @@
         <v>62</v>
       </c>
       <c r="AD3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AE3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>77</v>
       </c>
       <c r="AI3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>45806</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4">
         <v>681.1</v>
       </c>
-      <c r="Y4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>59</v>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
       </c>
       <c r="AB4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s">
         <v>86</v>
       </c>
       <c r="AI4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>102</v>
+        <v>88</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>45806</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5">
         <v>1000</v>
       </c>
-      <c r="Y5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" t="s">
         <v>58</v>
       </c>
       <c r="AB5" t="s">
         <v>60</v>
       </c>
       <c r="AC5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>45806</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O6">
         <v>34.86</v>
       </c>
-      <c r="Y6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="P6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" t="s">
         <v>58</v>
       </c>
       <c r="AB6" t="s">
         <v>60</v>
       </c>
       <c r="AC6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AE6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>80</v>
       </c>
       <c r="AI6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>45806</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7">
         <v>113.91</v>
       </c>
-      <c r="Y7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" t="s">
         <v>58</v>
       </c>
       <c r="AB7" t="s">
         <v>60</v>
       </c>
       <c r="AC7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AE7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>80</v>
       </c>
       <c r="AI7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>45806</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8">
         <v>7780</v>
       </c>
-      <c r="Y8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>59</v>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>58</v>
       </c>
       <c r="AB8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AD8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="s">
         <v>84</v>
@@ -2137,151 +1440,994 @@
         <v>86</v>
       </c>
       <c r="AI8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>102</v>
+        <v>88</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>45806</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O9">
         <v>1553</v>
       </c>
-      <c r="Y9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="P9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z9" t="s">
         <v>58</v>
       </c>
       <c r="AB9" t="s">
         <v>60</v>
       </c>
       <c r="AC9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AN4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2">
+        <v>106.69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3">
+        <v>308.22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>337.78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3">
+        <v>21.79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4">
+        <v>681.1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5">
+        <v>1000</v>
+      </c>
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6">
+        <v>34.86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7">
+        <v>113.91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD7" t="s">
         <v>68</v>
       </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8">
+        <v>7780</v>
+      </c>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9">
+        <v>1553</v>
+      </c>
+      <c r="P9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>62</v>
+      </c>
       <c r="AD9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>82</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2">
         <v>45806</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O10">
         <v>106.69</v>
       </c>
-      <c r="Y10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="P10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE10" t="s">
         <v>57</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>85</v>
       </c>
       <c r="AI10" t="s">
         <v>87</v>
       </c>
-      <c r="AN10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AJ10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2">
         <v>45806</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O11">
         <v>308.22</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="P11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45806</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="J12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AB11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>102</v>
+      <c r="P12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
